--- a/hass_land_price_app/hass_land_price_app/all_data_avg_price_data.xlsx
+++ b/hass_land_price_app/hass_land_price_app/all_data_avg_price_data.xlsx
@@ -26,7 +26,7 @@
     <t>Average Price (KShs)</t>
   </si>
   <si>
-    <t>quart_year_label</t>
+    <t>Quarter and Year</t>
   </si>
   <si>
     <t>1</t>
